--- a/インサート文.xlsx
+++ b/インサート文.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10224"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10224" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="user" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="sitediv" sheetId="3" r:id="rId5"/>
     <sheet name="sitedes" sheetId="6" r:id="rId6"/>
     <sheet name="value" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="64">
   <si>
     <t>set names sjis;</t>
     <phoneticPr fontId="1"/>
@@ -277,6 +278,64 @@
     <rPh sb="28" eb="30">
       <t>オオサワ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO site VALUES(7,'ロシア国旗','ロシアの国旗です');</t>
+    <rPh sb="30" eb="32">
+      <t>コッキ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>コッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO siteg VALUES(7,5);</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO sitediv VALUES(7,1,'back1');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO sitediv VALUES(7,2,'back2');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>INSERT INTO sitediv VALUES(7,3,'back3');</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>e</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>f</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>b</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -612,7 +671,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B7:C18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B17" sqref="B17:B18"/>
     </sheetView>
   </sheetViews>
@@ -671,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B6:C13"/>
+  <dimension ref="B6:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -706,6 +765,11 @@
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -760,10 +824,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:B14"/>
+  <dimension ref="B8:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -806,6 +870,11 @@
         <v>47</v>
       </c>
     </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -814,10 +883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B8:B29"/>
+  <dimension ref="B8:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:B29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -933,6 +1002,21 @@
     <row r="29" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B29" t="s">
         <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -975,7 +1059,7 @@
   <dimension ref="B8:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1017,4 +1101,4936 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F512"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D257" sqref="D257"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="44" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="45" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D59">
+        <v>0</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66">
+        <v>4</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>4</v>
+      </c>
+      <c r="F68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69">
+        <v>4</v>
+      </c>
+      <c r="F69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70">
+        <v>4</v>
+      </c>
+      <c r="F70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+      <c r="F71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D72">
+        <v>0</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+      <c r="F72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+      <c r="F73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+      <c r="F74">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>5</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D82">
+        <v>0</v>
+      </c>
+      <c r="E82">
+        <v>5</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83">
+        <v>5</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84">
+        <v>5</v>
+      </c>
+      <c r="F84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85">
+        <v>5</v>
+      </c>
+      <c r="F85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86">
+        <v>5</v>
+      </c>
+      <c r="F86">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87">
+        <v>5</v>
+      </c>
+      <c r="F87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+      <c r="F88">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+      <c r="F89">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90">
+        <v>5</v>
+      </c>
+      <c r="F90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="92" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D92">
+        <v>0</v>
+      </c>
+      <c r="E92">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="93" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94">
+        <v>5</v>
+      </c>
+      <c r="F94" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="95" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="96" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="97" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98">
+        <v>6</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99">
+        <v>6</v>
+      </c>
+      <c r="F99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100">
+        <v>6</v>
+      </c>
+      <c r="F100">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101">
+        <v>6</v>
+      </c>
+      <c r="F101">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>6</v>
+      </c>
+      <c r="F102">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>6</v>
+      </c>
+      <c r="F103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>6</v>
+      </c>
+      <c r="F104">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105">
+        <v>6</v>
+      </c>
+      <c r="F105">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="106" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106">
+        <v>6</v>
+      </c>
+      <c r="F106">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107">
+        <v>6</v>
+      </c>
+      <c r="F107" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="108" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108">
+        <v>6</v>
+      </c>
+      <c r="F108" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="109" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109">
+        <v>6</v>
+      </c>
+      <c r="F109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110">
+        <v>6</v>
+      </c>
+      <c r="F110" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="111" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>6</v>
+      </c>
+      <c r="F111" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="112" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>6</v>
+      </c>
+      <c r="F112" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="113" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113">
+        <v>7</v>
+      </c>
+      <c r="F113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114">
+        <v>7</v>
+      </c>
+      <c r="F114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>7</v>
+      </c>
+      <c r="F115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117">
+        <v>7</v>
+      </c>
+      <c r="F117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118">
+        <v>7</v>
+      </c>
+      <c r="F118">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119">
+        <v>7</v>
+      </c>
+      <c r="F119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120">
+        <v>7</v>
+      </c>
+      <c r="F120">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121">
+        <v>7</v>
+      </c>
+      <c r="F121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122">
+        <v>7</v>
+      </c>
+      <c r="F122">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="123" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123">
+        <v>7</v>
+      </c>
+      <c r="F123" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124">
+        <v>7</v>
+      </c>
+      <c r="F124" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="125" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125">
+        <v>7</v>
+      </c>
+      <c r="F125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126">
+        <v>7</v>
+      </c>
+      <c r="F126" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127">
+        <v>7</v>
+      </c>
+      <c r="F127" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="128" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="129" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129">
+        <v>8</v>
+      </c>
+      <c r="F129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130">
+        <v>8</v>
+      </c>
+      <c r="F130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131">
+        <v>8</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132">
+        <v>8</v>
+      </c>
+      <c r="F132">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D133">
+        <v>0</v>
+      </c>
+      <c r="E133">
+        <v>8</v>
+      </c>
+      <c r="F133">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D134">
+        <v>0</v>
+      </c>
+      <c r="E134">
+        <v>8</v>
+      </c>
+      <c r="F134">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="136" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>8</v>
+      </c>
+      <c r="F136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137">
+        <v>8</v>
+      </c>
+      <c r="F137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138">
+        <v>8</v>
+      </c>
+      <c r="F138">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139">
+        <v>8</v>
+      </c>
+      <c r="F139" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="140" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140">
+        <v>8</v>
+      </c>
+      <c r="F140" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="141" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141">
+        <v>8</v>
+      </c>
+      <c r="F141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D142">
+        <v>0</v>
+      </c>
+      <c r="E142">
+        <v>8</v>
+      </c>
+      <c r="F142" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D143">
+        <v>0</v>
+      </c>
+      <c r="E143">
+        <v>8</v>
+      </c>
+      <c r="F143" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="144" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D144">
+        <v>0</v>
+      </c>
+      <c r="E144">
+        <v>8</v>
+      </c>
+      <c r="F144" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="145" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D145">
+        <v>0</v>
+      </c>
+      <c r="E145">
+        <v>9</v>
+      </c>
+      <c r="F145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D146">
+        <v>0</v>
+      </c>
+      <c r="E146">
+        <v>9</v>
+      </c>
+      <c r="F146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D147">
+        <v>0</v>
+      </c>
+      <c r="E147">
+        <v>9</v>
+      </c>
+      <c r="F147">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D148">
+        <v>0</v>
+      </c>
+      <c r="E148">
+        <v>9</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D149">
+        <v>0</v>
+      </c>
+      <c r="E149">
+        <v>9</v>
+      </c>
+      <c r="F149">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="150" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D150">
+        <v>0</v>
+      </c>
+      <c r="E150">
+        <v>9</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D151">
+        <v>0</v>
+      </c>
+      <c r="E151">
+        <v>9</v>
+      </c>
+      <c r="F151">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D152">
+        <v>0</v>
+      </c>
+      <c r="E152">
+        <v>9</v>
+      </c>
+      <c r="F152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D153">
+        <v>0</v>
+      </c>
+      <c r="E153">
+        <v>9</v>
+      </c>
+      <c r="F153">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="154" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D154">
+        <v>0</v>
+      </c>
+      <c r="E154">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="155" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D155">
+        <v>0</v>
+      </c>
+      <c r="E155">
+        <v>9</v>
+      </c>
+      <c r="F155" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D156">
+        <v>0</v>
+      </c>
+      <c r="E156">
+        <v>9</v>
+      </c>
+      <c r="F156" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="157" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D157">
+        <v>0</v>
+      </c>
+      <c r="E157">
+        <v>9</v>
+      </c>
+      <c r="F157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D158">
+        <v>0</v>
+      </c>
+      <c r="E158">
+        <v>9</v>
+      </c>
+      <c r="F158" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="159" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D159">
+        <v>0</v>
+      </c>
+      <c r="E159">
+        <v>9</v>
+      </c>
+      <c r="F159" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="160" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D160">
+        <v>0</v>
+      </c>
+      <c r="E160">
+        <v>9</v>
+      </c>
+      <c r="F160" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="161" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D161">
+        <v>0</v>
+      </c>
+      <c r="E161" t="s">
+        <v>62</v>
+      </c>
+      <c r="F161">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D162">
+        <v>0</v>
+      </c>
+      <c r="E162" t="s">
+        <v>62</v>
+      </c>
+      <c r="F162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D163">
+        <v>0</v>
+      </c>
+      <c r="E163" t="s">
+        <v>62</v>
+      </c>
+      <c r="F163">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D164">
+        <v>0</v>
+      </c>
+      <c r="E164" t="s">
+        <v>62</v>
+      </c>
+      <c r="F164">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D165">
+        <v>0</v>
+      </c>
+      <c r="E165" t="s">
+        <v>62</v>
+      </c>
+      <c r="F165">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="166" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D166">
+        <v>0</v>
+      </c>
+      <c r="E166" t="s">
+        <v>62</v>
+      </c>
+      <c r="F166">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="167" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D167">
+        <v>0</v>
+      </c>
+      <c r="E167" t="s">
+        <v>62</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D168">
+        <v>0</v>
+      </c>
+      <c r="E168" t="s">
+        <v>62</v>
+      </c>
+      <c r="F168">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D169">
+        <v>0</v>
+      </c>
+      <c r="E169" t="s">
+        <v>62</v>
+      </c>
+      <c r="F169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D170">
+        <v>0</v>
+      </c>
+      <c r="E170" t="s">
+        <v>62</v>
+      </c>
+      <c r="F170">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D171">
+        <v>0</v>
+      </c>
+      <c r="E171" t="s">
+        <v>62</v>
+      </c>
+      <c r="F171" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="172" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D172">
+        <v>0</v>
+      </c>
+      <c r="E172" t="s">
+        <v>62</v>
+      </c>
+      <c r="F172" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="173" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D173">
+        <v>0</v>
+      </c>
+      <c r="E173" t="s">
+        <v>62</v>
+      </c>
+      <c r="F173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D174">
+        <v>0</v>
+      </c>
+      <c r="E174" t="s">
+        <v>62</v>
+      </c>
+      <c r="F174" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="175" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D175">
+        <v>0</v>
+      </c>
+      <c r="E175" t="s">
+        <v>62</v>
+      </c>
+      <c r="F175" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="176" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D176">
+        <v>0</v>
+      </c>
+      <c r="E176" t="s">
+        <v>62</v>
+      </c>
+      <c r="F176" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="177" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D177">
+        <v>0</v>
+      </c>
+      <c r="E177" t="s">
+        <v>63</v>
+      </c>
+      <c r="F177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D178">
+        <v>0</v>
+      </c>
+      <c r="E178" t="s">
+        <v>63</v>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D179">
+        <v>0</v>
+      </c>
+      <c r="E179" t="s">
+        <v>63</v>
+      </c>
+      <c r="F179">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D180">
+        <v>0</v>
+      </c>
+      <c r="E180" t="s">
+        <v>63</v>
+      </c>
+      <c r="F180">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D181">
+        <v>0</v>
+      </c>
+      <c r="E181" t="s">
+        <v>63</v>
+      </c>
+      <c r="F181">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="182" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D182">
+        <v>0</v>
+      </c>
+      <c r="E182" t="s">
+        <v>63</v>
+      </c>
+      <c r="F182">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="183" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D183">
+        <v>0</v>
+      </c>
+      <c r="E183" t="s">
+        <v>63</v>
+      </c>
+      <c r="F183">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D184">
+        <v>0</v>
+      </c>
+      <c r="E184" t="s">
+        <v>63</v>
+      </c>
+      <c r="F184">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D185">
+        <v>0</v>
+      </c>
+      <c r="E185" t="s">
+        <v>63</v>
+      </c>
+      <c r="F185">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D186">
+        <v>0</v>
+      </c>
+      <c r="E186" t="s">
+        <v>63</v>
+      </c>
+      <c r="F186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D187">
+        <v>0</v>
+      </c>
+      <c r="E187" t="s">
+        <v>63</v>
+      </c>
+      <c r="F187" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="188" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D188">
+        <v>0</v>
+      </c>
+      <c r="E188" t="s">
+        <v>63</v>
+      </c>
+      <c r="F188" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="189" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D189">
+        <v>0</v>
+      </c>
+      <c r="E189" t="s">
+        <v>63</v>
+      </c>
+      <c r="F189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D190">
+        <v>0</v>
+      </c>
+      <c r="E190" t="s">
+        <v>63</v>
+      </c>
+      <c r="F190" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="191" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D191">
+        <v>0</v>
+      </c>
+      <c r="E191" t="s">
+        <v>63</v>
+      </c>
+      <c r="F191" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="192" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D192">
+        <v>0</v>
+      </c>
+      <c r="E192" t="s">
+        <v>63</v>
+      </c>
+      <c r="F192" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="193" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D193">
+        <v>0</v>
+      </c>
+      <c r="E193" t="s">
+        <v>58</v>
+      </c>
+      <c r="F193">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D194">
+        <v>0</v>
+      </c>
+      <c r="E194" t="s">
+        <v>58</v>
+      </c>
+      <c r="F194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D195">
+        <v>0</v>
+      </c>
+      <c r="E195" t="s">
+        <v>58</v>
+      </c>
+      <c r="F195">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D196">
+        <v>0</v>
+      </c>
+      <c r="E196" t="s">
+        <v>58</v>
+      </c>
+      <c r="F196">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D197">
+        <v>0</v>
+      </c>
+      <c r="E197" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D198">
+        <v>0</v>
+      </c>
+      <c r="E198" t="s">
+        <v>58</v>
+      </c>
+      <c r="F198">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="199" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D199">
+        <v>0</v>
+      </c>
+      <c r="E199" t="s">
+        <v>58</v>
+      </c>
+      <c r="F199">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D200">
+        <v>0</v>
+      </c>
+      <c r="E200" t="s">
+        <v>58</v>
+      </c>
+      <c r="F200">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D201">
+        <v>0</v>
+      </c>
+      <c r="E201" t="s">
+        <v>58</v>
+      </c>
+      <c r="F201">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D202">
+        <v>0</v>
+      </c>
+      <c r="E202" t="s">
+        <v>58</v>
+      </c>
+      <c r="F202">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D203">
+        <v>0</v>
+      </c>
+      <c r="E203" t="s">
+        <v>58</v>
+      </c>
+      <c r="F203" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="204" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D204">
+        <v>0</v>
+      </c>
+      <c r="E204" t="s">
+        <v>58</v>
+      </c>
+      <c r="F204" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="205" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D205">
+        <v>0</v>
+      </c>
+      <c r="E205" t="s">
+        <v>58</v>
+      </c>
+      <c r="F205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206" t="s">
+        <v>58</v>
+      </c>
+      <c r="F206" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="207" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207" t="s">
+        <v>58</v>
+      </c>
+      <c r="F207" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="208" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D208">
+        <v>0</v>
+      </c>
+      <c r="E208" t="s">
+        <v>58</v>
+      </c>
+      <c r="F208" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="209" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D209">
+        <v>0</v>
+      </c>
+      <c r="E209" t="s">
+        <v>59</v>
+      </c>
+      <c r="F209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D210">
+        <v>0</v>
+      </c>
+      <c r="E210" t="s">
+        <v>59</v>
+      </c>
+      <c r="F210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D211">
+        <v>0</v>
+      </c>
+      <c r="E211" t="s">
+        <v>59</v>
+      </c>
+      <c r="F211">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="212" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D212">
+        <v>0</v>
+      </c>
+      <c r="E212" t="s">
+        <v>59</v>
+      </c>
+      <c r="F212">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D213">
+        <v>0</v>
+      </c>
+      <c r="E213" t="s">
+        <v>59</v>
+      </c>
+      <c r="F213">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="214" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D214">
+        <v>0</v>
+      </c>
+      <c r="E214" t="s">
+        <v>59</v>
+      </c>
+      <c r="F214">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="215" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D215">
+        <v>0</v>
+      </c>
+      <c r="E215" t="s">
+        <v>59</v>
+      </c>
+      <c r="F215">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D216">
+        <v>0</v>
+      </c>
+      <c r="E216" t="s">
+        <v>59</v>
+      </c>
+      <c r="F216">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D217">
+        <v>0</v>
+      </c>
+      <c r="E217" t="s">
+        <v>59</v>
+      </c>
+      <c r="F217">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="218" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D218">
+        <v>0</v>
+      </c>
+      <c r="E218" t="s">
+        <v>59</v>
+      </c>
+      <c r="F218">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="219" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D219">
+        <v>0</v>
+      </c>
+      <c r="E219" t="s">
+        <v>59</v>
+      </c>
+      <c r="F219" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="220" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D220">
+        <v>0</v>
+      </c>
+      <c r="E220" t="s">
+        <v>59</v>
+      </c>
+      <c r="F220" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="221" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D221">
+        <v>0</v>
+      </c>
+      <c r="E221" t="s">
+        <v>59</v>
+      </c>
+      <c r="F221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D222">
+        <v>0</v>
+      </c>
+      <c r="E222" t="s">
+        <v>59</v>
+      </c>
+      <c r="F222" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="223" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D223">
+        <v>0</v>
+      </c>
+      <c r="E223" t="s">
+        <v>59</v>
+      </c>
+      <c r="F223" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="224" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D224">
+        <v>0</v>
+      </c>
+      <c r="E224" t="s">
+        <v>59</v>
+      </c>
+      <c r="F224" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="225" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D225">
+        <v>0</v>
+      </c>
+      <c r="E225" t="s">
+        <v>60</v>
+      </c>
+      <c r="F225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D226">
+        <v>0</v>
+      </c>
+      <c r="E226" t="s">
+        <v>60</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="227" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D227">
+        <v>0</v>
+      </c>
+      <c r="E227" t="s">
+        <v>60</v>
+      </c>
+      <c r="F227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D228">
+        <v>0</v>
+      </c>
+      <c r="E228" t="s">
+        <v>60</v>
+      </c>
+      <c r="F228">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D229">
+        <v>0</v>
+      </c>
+      <c r="E229" t="s">
+        <v>60</v>
+      </c>
+      <c r="F229">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D230">
+        <v>0</v>
+      </c>
+      <c r="E230" t="s">
+        <v>60</v>
+      </c>
+      <c r="F230">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="231" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D231">
+        <v>0</v>
+      </c>
+      <c r="E231" t="s">
+        <v>60</v>
+      </c>
+      <c r="F231">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="232" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D232">
+        <v>0</v>
+      </c>
+      <c r="E232" t="s">
+        <v>60</v>
+      </c>
+      <c r="F232">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D233">
+        <v>0</v>
+      </c>
+      <c r="E233" t="s">
+        <v>60</v>
+      </c>
+      <c r="F233">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="234" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D234">
+        <v>0</v>
+      </c>
+      <c r="E234" t="s">
+        <v>60</v>
+      </c>
+      <c r="F234">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="235" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D235">
+        <v>0</v>
+      </c>
+      <c r="E235" t="s">
+        <v>60</v>
+      </c>
+      <c r="F235" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="236" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D236">
+        <v>0</v>
+      </c>
+      <c r="E236" t="s">
+        <v>60</v>
+      </c>
+      <c r="F236" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="237" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D237">
+        <v>0</v>
+      </c>
+      <c r="E237" t="s">
+        <v>60</v>
+      </c>
+      <c r="F237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D238">
+        <v>0</v>
+      </c>
+      <c r="E238" t="s">
+        <v>60</v>
+      </c>
+      <c r="F238" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="239" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D239">
+        <v>0</v>
+      </c>
+      <c r="E239" t="s">
+        <v>60</v>
+      </c>
+      <c r="F239" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="240" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D240">
+        <v>0</v>
+      </c>
+      <c r="E240" t="s">
+        <v>60</v>
+      </c>
+      <c r="F240" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="241" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D241">
+        <v>0</v>
+      </c>
+      <c r="E241" t="s">
+        <v>61</v>
+      </c>
+      <c r="F241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D242">
+        <v>0</v>
+      </c>
+      <c r="E242" t="s">
+        <v>61</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="243" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D243">
+        <v>0</v>
+      </c>
+      <c r="E243" t="s">
+        <v>61</v>
+      </c>
+      <c r="F243">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="244" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D244">
+        <v>0</v>
+      </c>
+      <c r="E244" t="s">
+        <v>61</v>
+      </c>
+      <c r="F244">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D245">
+        <v>0</v>
+      </c>
+      <c r="E245" t="s">
+        <v>61</v>
+      </c>
+      <c r="F245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D246">
+        <v>0</v>
+      </c>
+      <c r="E246" t="s">
+        <v>61</v>
+      </c>
+      <c r="F246">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="247" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D247">
+        <v>0</v>
+      </c>
+      <c r="E247" t="s">
+        <v>61</v>
+      </c>
+      <c r="F247">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="248" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D248">
+        <v>0</v>
+      </c>
+      <c r="E248" t="s">
+        <v>61</v>
+      </c>
+      <c r="F248">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="249" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D249">
+        <v>0</v>
+      </c>
+      <c r="E249" t="s">
+        <v>61</v>
+      </c>
+      <c r="F249">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D250">
+        <v>0</v>
+      </c>
+      <c r="E250" t="s">
+        <v>61</v>
+      </c>
+      <c r="F250">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="251" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D251">
+        <v>0</v>
+      </c>
+      <c r="E251" t="s">
+        <v>61</v>
+      </c>
+      <c r="F251" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="252" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D252">
+        <v>0</v>
+      </c>
+      <c r="E252" t="s">
+        <v>61</v>
+      </c>
+      <c r="F252" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="253" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D253">
+        <v>0</v>
+      </c>
+      <c r="E253" t="s">
+        <v>61</v>
+      </c>
+      <c r="F253" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D254">
+        <v>0</v>
+      </c>
+      <c r="E254" t="s">
+        <v>61</v>
+      </c>
+      <c r="F254" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="255" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D255">
+        <v>0</v>
+      </c>
+      <c r="E255" t="s">
+        <v>61</v>
+      </c>
+      <c r="F255" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="256" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D256">
+        <v>0</v>
+      </c>
+      <c r="E256" t="s">
+        <v>61</v>
+      </c>
+      <c r="F256" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="257" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D257">
+        <v>1</v>
+      </c>
+      <c r="E257">
+        <v>0</v>
+      </c>
+      <c r="F257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E258">
+        <v>0</v>
+      </c>
+      <c r="F258">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E259">
+        <v>0</v>
+      </c>
+      <c r="F259">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="260" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E260">
+        <v>0</v>
+      </c>
+      <c r="F260">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E261">
+        <v>0</v>
+      </c>
+      <c r="F261">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="262" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E262">
+        <v>0</v>
+      </c>
+      <c r="F262">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="263" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E263">
+        <v>0</v>
+      </c>
+      <c r="F263">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="264" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E264">
+        <v>0</v>
+      </c>
+      <c r="F264">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="265" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E265">
+        <v>0</v>
+      </c>
+      <c r="F265">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="266" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E266">
+        <v>0</v>
+      </c>
+      <c r="F266">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="267" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="268" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="269" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E269">
+        <v>0</v>
+      </c>
+      <c r="F269" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E270">
+        <v>0</v>
+      </c>
+      <c r="F270" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="271" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E271">
+        <v>0</v>
+      </c>
+      <c r="F271" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="272" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="E272">
+        <v>0</v>
+      </c>
+      <c r="F272" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="273" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E274">
+        <v>1</v>
+      </c>
+      <c r="F274">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E275">
+        <v>1</v>
+      </c>
+      <c r="F275">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="276" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E276">
+        <v>1</v>
+      </c>
+      <c r="F276">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E277">
+        <v>1</v>
+      </c>
+      <c r="F277">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="278" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E278">
+        <v>1</v>
+      </c>
+      <c r="F278">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="279" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E279">
+        <v>1</v>
+      </c>
+      <c r="F279">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="280" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E280">
+        <v>1</v>
+      </c>
+      <c r="F280">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E281">
+        <v>1</v>
+      </c>
+      <c r="F281">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="282" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E282">
+        <v>1</v>
+      </c>
+      <c r="F282">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="283" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E283">
+        <v>1</v>
+      </c>
+      <c r="F283" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="284" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E284">
+        <v>1</v>
+      </c>
+      <c r="F284" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="285" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E285">
+        <v>1</v>
+      </c>
+      <c r="F285" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E286">
+        <v>1</v>
+      </c>
+      <c r="F286" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="287" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E287">
+        <v>1</v>
+      </c>
+      <c r="F287" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="288" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E288">
+        <v>1</v>
+      </c>
+      <c r="F288" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="289" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E289">
+        <v>2</v>
+      </c>
+      <c r="F289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E290">
+        <v>2</v>
+      </c>
+      <c r="F290">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="291" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E291">
+        <v>2</v>
+      </c>
+      <c r="F291">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E293">
+        <v>2</v>
+      </c>
+      <c r="F293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E294">
+        <v>2</v>
+      </c>
+      <c r="F294">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E295">
+        <v>2</v>
+      </c>
+      <c r="F295">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="296" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E296">
+        <v>2</v>
+      </c>
+      <c r="F296">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E297">
+        <v>2</v>
+      </c>
+      <c r="F297">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="298" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E298">
+        <v>2</v>
+      </c>
+      <c r="F298">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="299" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E299">
+        <v>2</v>
+      </c>
+      <c r="F299" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="300" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E300">
+        <v>2</v>
+      </c>
+      <c r="F300" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="301" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E301">
+        <v>2</v>
+      </c>
+      <c r="F301" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="302" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E302">
+        <v>2</v>
+      </c>
+      <c r="F302" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="303" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E303">
+        <v>2</v>
+      </c>
+      <c r="F303" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="304" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E304">
+        <v>2</v>
+      </c>
+      <c r="F304" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="305" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E305">
+        <v>3</v>
+      </c>
+      <c r="F305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E306">
+        <v>3</v>
+      </c>
+      <c r="F306">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="307" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E307">
+        <v>3</v>
+      </c>
+      <c r="F307">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E308">
+        <v>3</v>
+      </c>
+      <c r="F308">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E309">
+        <v>3</v>
+      </c>
+      <c r="F309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E310">
+        <v>3</v>
+      </c>
+      <c r="F310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E311">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="312" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E312">
+        <v>3</v>
+      </c>
+      <c r="F312">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="313" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E313">
+        <v>3</v>
+      </c>
+      <c r="F313">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="314" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E314">
+        <v>3</v>
+      </c>
+      <c r="F314">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="315" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E315">
+        <v>3</v>
+      </c>
+      <c r="F315" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="316" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E316">
+        <v>3</v>
+      </c>
+      <c r="F316" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="317" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E317">
+        <v>3</v>
+      </c>
+      <c r="F317" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E318">
+        <v>3</v>
+      </c>
+      <c r="F318" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="319" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E319">
+        <v>3</v>
+      </c>
+      <c r="F319" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="320" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E320">
+        <v>3</v>
+      </c>
+      <c r="F320" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="321" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E321">
+        <v>4</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E322">
+        <v>4</v>
+      </c>
+      <c r="F322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E323">
+        <v>4</v>
+      </c>
+      <c r="F323">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="324" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E324">
+        <v>4</v>
+      </c>
+      <c r="F324">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E325">
+        <v>4</v>
+      </c>
+      <c r="F325">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="326" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E326">
+        <v>4</v>
+      </c>
+      <c r="F326">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="327" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E327">
+        <v>4</v>
+      </c>
+      <c r="F327">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="328" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E328">
+        <v>4</v>
+      </c>
+      <c r="F328">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E329">
+        <v>4</v>
+      </c>
+      <c r="F329">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="330" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E330">
+        <v>4</v>
+      </c>
+      <c r="F330">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E331">
+        <v>4</v>
+      </c>
+      <c r="F331" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="332" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E332">
+        <v>4</v>
+      </c>
+      <c r="F332" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="333" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E333">
+        <v>4</v>
+      </c>
+      <c r="F333" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="334" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E334">
+        <v>4</v>
+      </c>
+      <c r="F334" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="335" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E335">
+        <v>4</v>
+      </c>
+      <c r="F335" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="336" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E336">
+        <v>4</v>
+      </c>
+      <c r="F336" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="337" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E337">
+        <v>5</v>
+      </c>
+      <c r="F337">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E338">
+        <v>5</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E339">
+        <v>5</v>
+      </c>
+      <c r="F339">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="340" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E340">
+        <v>5</v>
+      </c>
+      <c r="F340">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E341">
+        <v>5</v>
+      </c>
+      <c r="F341">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="342" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E342">
+        <v>5</v>
+      </c>
+      <c r="F342">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="343" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E343">
+        <v>5</v>
+      </c>
+      <c r="F343">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="344" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E344">
+        <v>5</v>
+      </c>
+      <c r="F344">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="345" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E345">
+        <v>5</v>
+      </c>
+      <c r="F345">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="346" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E346">
+        <v>5</v>
+      </c>
+      <c r="F346">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E347">
+        <v>5</v>
+      </c>
+      <c r="F347" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="348" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E348">
+        <v>5</v>
+      </c>
+      <c r="F348" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="349" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E349">
+        <v>5</v>
+      </c>
+      <c r="F349" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="350" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E350">
+        <v>5</v>
+      </c>
+      <c r="F350" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="351" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E351">
+        <v>5</v>
+      </c>
+      <c r="F351" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="352" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E352">
+        <v>5</v>
+      </c>
+      <c r="F352" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="353" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E353">
+        <v>6</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E354">
+        <v>6</v>
+      </c>
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E355">
+        <v>6</v>
+      </c>
+      <c r="F355">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="356" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E356">
+        <v>6</v>
+      </c>
+      <c r="F356">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E357">
+        <v>6</v>
+      </c>
+      <c r="F357">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="358" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E358">
+        <v>6</v>
+      </c>
+      <c r="F358">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="359" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E359">
+        <v>6</v>
+      </c>
+      <c r="F359">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="360" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E360">
+        <v>6</v>
+      </c>
+      <c r="F360">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="361" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E361">
+        <v>6</v>
+      </c>
+      <c r="F361">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="362" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E362">
+        <v>6</v>
+      </c>
+      <c r="F362">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="363" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E363">
+        <v>6</v>
+      </c>
+      <c r="F363" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="364" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E364">
+        <v>6</v>
+      </c>
+      <c r="F364" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="365" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E365">
+        <v>6</v>
+      </c>
+      <c r="F365" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="366" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E366">
+        <v>6</v>
+      </c>
+      <c r="F366" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="367" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E367">
+        <v>6</v>
+      </c>
+      <c r="F367" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E368">
+        <v>6</v>
+      </c>
+      <c r="F368" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="369" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E369">
+        <v>7</v>
+      </c>
+      <c r="F369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E370">
+        <v>7</v>
+      </c>
+      <c r="F370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E371">
+        <v>7</v>
+      </c>
+      <c r="F371">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="372" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E372">
+        <v>7</v>
+      </c>
+      <c r="F372">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="373" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E373">
+        <v>7</v>
+      </c>
+      <c r="F373">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="374" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E374">
+        <v>7</v>
+      </c>
+      <c r="F374">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="375" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E375">
+        <v>7</v>
+      </c>
+      <c r="F375">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="376" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E376">
+        <v>7</v>
+      </c>
+      <c r="F376">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E377">
+        <v>7</v>
+      </c>
+      <c r="F377">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E378">
+        <v>7</v>
+      </c>
+      <c r="F378">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="379" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E379">
+        <v>7</v>
+      </c>
+      <c r="F379" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="380" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E380">
+        <v>7</v>
+      </c>
+      <c r="F380" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="381" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E381">
+        <v>7</v>
+      </c>
+      <c r="F381" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="382" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E382">
+        <v>7</v>
+      </c>
+      <c r="F382" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="383" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E383">
+        <v>7</v>
+      </c>
+      <c r="F383" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="384" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E384">
+        <v>7</v>
+      </c>
+      <c r="F384" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="385" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E385">
+        <v>8</v>
+      </c>
+      <c r="F385">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E386">
+        <v>8</v>
+      </c>
+      <c r="F386">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="387" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E387">
+        <v>8</v>
+      </c>
+      <c r="F387">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="388" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E388">
+        <v>8</v>
+      </c>
+      <c r="F388">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="389" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E389">
+        <v>8</v>
+      </c>
+      <c r="F389">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="390" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E390">
+        <v>8</v>
+      </c>
+      <c r="F390">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="391" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E391">
+        <v>8</v>
+      </c>
+      <c r="F391">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="392" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E392">
+        <v>8</v>
+      </c>
+      <c r="F392">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E393">
+        <v>8</v>
+      </c>
+      <c r="F393">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="394" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E394">
+        <v>8</v>
+      </c>
+      <c r="F394">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="395" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E395">
+        <v>8</v>
+      </c>
+      <c r="F395" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="396" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E396">
+        <v>8</v>
+      </c>
+      <c r="F396" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="397" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E397">
+        <v>8</v>
+      </c>
+      <c r="F397" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="398" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E398">
+        <v>8</v>
+      </c>
+      <c r="F398" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="399" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E399">
+        <v>8</v>
+      </c>
+      <c r="F399" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="400" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E400">
+        <v>8</v>
+      </c>
+      <c r="F400" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E401">
+        <v>9</v>
+      </c>
+      <c r="F401">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E402">
+        <v>9</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E403">
+        <v>9</v>
+      </c>
+      <c r="F403">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="404" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E404">
+        <v>9</v>
+      </c>
+      <c r="F404">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="405" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E405">
+        <v>9</v>
+      </c>
+      <c r="F405">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="406" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E406">
+        <v>9</v>
+      </c>
+      <c r="F406">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="407" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E407">
+        <v>9</v>
+      </c>
+      <c r="F407">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="408" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E408">
+        <v>9</v>
+      </c>
+      <c r="F408">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E409">
+        <v>9</v>
+      </c>
+      <c r="F409">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="410" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E410">
+        <v>9</v>
+      </c>
+      <c r="F410">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="411" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E411">
+        <v>9</v>
+      </c>
+      <c r="F411" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="412" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E412">
+        <v>9</v>
+      </c>
+      <c r="F412" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="413" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E413">
+        <v>9</v>
+      </c>
+      <c r="F413" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="414" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E414">
+        <v>9</v>
+      </c>
+      <c r="F414" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="415" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E415">
+        <v>9</v>
+      </c>
+      <c r="F415" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="416" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E416">
+        <v>9</v>
+      </c>
+      <c r="F416" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="417" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E417" t="s">
+        <v>62</v>
+      </c>
+      <c r="F417">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E418" t="s">
+        <v>62</v>
+      </c>
+      <c r="F418">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E419" t="s">
+        <v>62</v>
+      </c>
+      <c r="F419">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="420" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E420" t="s">
+        <v>62</v>
+      </c>
+      <c r="F420">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="421" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E421" t="s">
+        <v>62</v>
+      </c>
+      <c r="F421">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="422" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E422" t="s">
+        <v>62</v>
+      </c>
+      <c r="F422">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="423" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E423" t="s">
+        <v>62</v>
+      </c>
+      <c r="F423">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E424" t="s">
+        <v>62</v>
+      </c>
+      <c r="F424">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E425" t="s">
+        <v>62</v>
+      </c>
+      <c r="F425">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="426" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E426" t="s">
+        <v>62</v>
+      </c>
+      <c r="F426">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="427" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E427" t="s">
+        <v>62</v>
+      </c>
+      <c r="F427" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="428" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E428" t="s">
+        <v>62</v>
+      </c>
+      <c r="F428" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="429" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E429" t="s">
+        <v>62</v>
+      </c>
+      <c r="F429" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="430" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E430" t="s">
+        <v>62</v>
+      </c>
+      <c r="F430" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="431" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E431" t="s">
+        <v>62</v>
+      </c>
+      <c r="F431" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="432" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E432" t="s">
+        <v>62</v>
+      </c>
+      <c r="F432" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="433" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E433" t="s">
+        <v>63</v>
+      </c>
+      <c r="F433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E434" t="s">
+        <v>63</v>
+      </c>
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E435" t="s">
+        <v>63</v>
+      </c>
+      <c r="F435">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="436" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E436" t="s">
+        <v>63</v>
+      </c>
+      <c r="F436">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="437" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E437" t="s">
+        <v>63</v>
+      </c>
+      <c r="F437">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="438" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E438" t="s">
+        <v>63</v>
+      </c>
+      <c r="F438">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="439" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E439" t="s">
+        <v>63</v>
+      </c>
+      <c r="F439">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="440" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E440" t="s">
+        <v>63</v>
+      </c>
+      <c r="F440">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E441" t="s">
+        <v>63</v>
+      </c>
+      <c r="F441">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="442" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E442" t="s">
+        <v>63</v>
+      </c>
+      <c r="F442">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="443" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E443" t="s">
+        <v>63</v>
+      </c>
+      <c r="F443" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="444" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E444" t="s">
+        <v>63</v>
+      </c>
+      <c r="F444" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="445" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E445" t="s">
+        <v>63</v>
+      </c>
+      <c r="F445" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="446" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E446" t="s">
+        <v>63</v>
+      </c>
+      <c r="F446" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="447" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E447" t="s">
+        <v>63</v>
+      </c>
+      <c r="F447" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="448" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E448" t="s">
+        <v>63</v>
+      </c>
+      <c r="F448" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="449" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E449" t="s">
+        <v>58</v>
+      </c>
+      <c r="F449">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E450" t="s">
+        <v>58</v>
+      </c>
+      <c r="F450">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="451" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E451" t="s">
+        <v>58</v>
+      </c>
+      <c r="F451">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="452" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E452" t="s">
+        <v>58</v>
+      </c>
+      <c r="F452">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E453" t="s">
+        <v>58</v>
+      </c>
+      <c r="F453">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="454" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E454" t="s">
+        <v>58</v>
+      </c>
+      <c r="F454">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="455" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E455" t="s">
+        <v>58</v>
+      </c>
+      <c r="F455">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="456" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E456" t="s">
+        <v>58</v>
+      </c>
+      <c r="F456">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E457" t="s">
+        <v>58</v>
+      </c>
+      <c r="F457">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="458" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E458" t="s">
+        <v>58</v>
+      </c>
+      <c r="F458">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="459" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E459" t="s">
+        <v>58</v>
+      </c>
+      <c r="F459" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="460" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E460" t="s">
+        <v>58</v>
+      </c>
+      <c r="F460" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="461" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E461" t="s">
+        <v>58</v>
+      </c>
+      <c r="F461" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="462" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E462" t="s">
+        <v>58</v>
+      </c>
+      <c r="F462" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="463" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E463" t="s">
+        <v>58</v>
+      </c>
+      <c r="F463" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="464" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E464" t="s">
+        <v>58</v>
+      </c>
+      <c r="F464" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="465" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E465" t="s">
+        <v>59</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E466" t="s">
+        <v>59</v>
+      </c>
+      <c r="F466">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E467" t="s">
+        <v>59</v>
+      </c>
+      <c r="F467">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="468" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E468" t="s">
+        <v>59</v>
+      </c>
+      <c r="F468">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E469" t="s">
+        <v>59</v>
+      </c>
+      <c r="F469">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="470" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E470" t="s">
+        <v>59</v>
+      </c>
+      <c r="F470">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="471" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E471" t="s">
+        <v>59</v>
+      </c>
+      <c r="F471">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="472" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E472" t="s">
+        <v>59</v>
+      </c>
+      <c r="F472">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E473" t="s">
+        <v>59</v>
+      </c>
+      <c r="F473">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="474" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E474" t="s">
+        <v>59</v>
+      </c>
+      <c r="F474">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="475" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E475" t="s">
+        <v>59</v>
+      </c>
+      <c r="F475" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="476" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E476" t="s">
+        <v>59</v>
+      </c>
+      <c r="F476" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="477" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E477" t="s">
+        <v>59</v>
+      </c>
+      <c r="F477" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="478" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E478" t="s">
+        <v>59</v>
+      </c>
+      <c r="F478" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="479" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E479" t="s">
+        <v>59</v>
+      </c>
+      <c r="F479" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="480" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E480" t="s">
+        <v>59</v>
+      </c>
+      <c r="F480" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="481" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E481" t="s">
+        <v>60</v>
+      </c>
+      <c r="F481">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E482" t="s">
+        <v>60</v>
+      </c>
+      <c r="F482">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="483" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E483" t="s">
+        <v>60</v>
+      </c>
+      <c r="F483">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="484" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E484" t="s">
+        <v>60</v>
+      </c>
+      <c r="F484">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E485" t="s">
+        <v>60</v>
+      </c>
+      <c r="F485">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="486" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E486" t="s">
+        <v>60</v>
+      </c>
+      <c r="F486">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="487" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E487" t="s">
+        <v>60</v>
+      </c>
+      <c r="F487">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="488" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E488" t="s">
+        <v>60</v>
+      </c>
+      <c r="F488">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E489" t="s">
+        <v>60</v>
+      </c>
+      <c r="F489">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="490" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E490" t="s">
+        <v>60</v>
+      </c>
+      <c r="F490">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="491" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E491" t="s">
+        <v>60</v>
+      </c>
+      <c r="F491" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="492" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E492" t="s">
+        <v>60</v>
+      </c>
+      <c r="F492" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="493" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E493" t="s">
+        <v>60</v>
+      </c>
+      <c r="F493" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="494" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E494" t="s">
+        <v>60</v>
+      </c>
+      <c r="F494" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="495" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E495" t="s">
+        <v>60</v>
+      </c>
+      <c r="F495" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="496" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E496" t="s">
+        <v>60</v>
+      </c>
+      <c r="F496" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="497" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E497" t="s">
+        <v>61</v>
+      </c>
+      <c r="F497">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E498" t="s">
+        <v>61</v>
+      </c>
+      <c r="F498">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="499" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E499" t="s">
+        <v>61</v>
+      </c>
+      <c r="F499">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="500" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E500" t="s">
+        <v>61</v>
+      </c>
+      <c r="F500">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="501" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E501" t="s">
+        <v>61</v>
+      </c>
+      <c r="F501">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="502" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E502" t="s">
+        <v>61</v>
+      </c>
+      <c r="F502">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="503" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E503" t="s">
+        <v>61</v>
+      </c>
+      <c r="F503">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="504" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E504" t="s">
+        <v>61</v>
+      </c>
+      <c r="F504">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E505" t="s">
+        <v>61</v>
+      </c>
+      <c r="F505">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="506" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E506" t="s">
+        <v>61</v>
+      </c>
+      <c r="F506">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="507" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E507" t="s">
+        <v>61</v>
+      </c>
+      <c r="F507" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="508" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E508" t="s">
+        <v>61</v>
+      </c>
+      <c r="F508" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="509" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E509" t="s">
+        <v>61</v>
+      </c>
+      <c r="F509" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="510" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E510" t="s">
+        <v>61</v>
+      </c>
+      <c r="F510" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="511" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E511" t="s">
+        <v>61</v>
+      </c>
+      <c r="F511" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="512" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E512" t="s">
+        <v>61</v>
+      </c>
+      <c r="F512" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>